--- a/src/main/resources/day24.xlsx
+++ b/src/main/resources/day24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garedw\Personal\AdventOfCode2021-Kotlin\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFFD42A4-EA9B-4C18-B444-CD13CCA3E01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B50306-F991-4AA8-832C-896A36E4BF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{46DEB637-24F1-45C1-80B2-8A6841D71E50}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="B3:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E18" si="0">IF(AND(G5&gt;0,G5&lt;10),G5,D5)</f>
+        <f t="shared" ref="E5:E17" si="0">IF(AND(G5&gt;0,G5&lt;10),G5,D5)</f>
         <v>3</v>
       </c>
       <c r="F5">
